--- a/public/excel/templates/探索营志愿者导入模板.xlsx
+++ b/public/excel/templates/探索营志愿者导入模板.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="临沂三中孩子名单" sheetId="1" r:id="rId1"/>
+    <sheet name="志愿者名单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -399,7 +399,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/public/excel/templates/探索营志愿者导入模板.xlsx
+++ b/public/excel/templates/探索营志愿者导入模板.xlsx
@@ -399,16 +399,17 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" customWidth="1"/>
     <col min="4" max="4" width="40" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -423,13 +424,13 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
